--- a/public/files/Data_By_Towns_Index/Somerset/Warren Township.xlsx
+++ b/public/files/Data_By_Towns_Index/Somerset/Warren Township.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>40.62658589999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.5254216</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>40.60531650000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.55345670000001</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>40.6498281</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.4968954</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>40.6201786</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.5033373</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>40.6276629</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.56021939999999</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>40.6482658</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.475449</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>40.6028777</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.5122398</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>40.6465684</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.51726699999999</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>40.6284145</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.55115379999999</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>40.63001190000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.4923455</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>40.6069007</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.5029504</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>40.6225306</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.4974835</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>40.6096727</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.5193122</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>40.6186932</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.503412</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +928,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>40.6533484</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.45851259999999</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +959,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>40.6311028</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-74.56069450000001</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +990,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>40.6206731</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.49284159999999</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1021,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>40.6421944</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-74.461967</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1052,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>40.6235704</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-74.5580914</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1083,15 @@
           <t>Kapadia</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>40.6416837</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-74.4956957</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1114,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>40.6223282</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-74.4966271</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1145,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>40.6459426</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-74.5142831</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1029,9 +1176,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>40.6058797</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-74.52054889999999</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1054,9 +1207,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>40.6399953</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-74.56729539999999</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1079,9 +1238,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>40.5923027</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-74.52196530000001</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1104,9 +1269,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>40.6214186</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-74.56108329999999</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1129,9 +1300,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>40.6329266</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-74.5602478</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1154,9 +1331,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>40.6249508</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-74.5305005</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,9 +1362,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>40.6390496</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-74.5529763</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1204,9 +1393,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>40.6469498</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-74.513775</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1229,9 +1424,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>40.6050134</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-74.50426419999999</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1254,9 +1455,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>40.6085667</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-74.557345</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1279,9 +1486,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>40.614787</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-74.5478097</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1304,9 +1517,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>40.6228828</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-74.4907297</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1329,9 +1548,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>40.6070042</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-74.50245269999999</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1354,9 +1579,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>40.6405918</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-74.5668745</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,9 +1610,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>40.6461507</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-74.51535489999999</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1404,9 +1641,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>40.6175966</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-74.54224379999999</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1429,9 +1672,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>40.6284048</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-74.4801794</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1454,9 +1703,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>40.642743</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-74.4628142</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1479,9 +1734,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>40.6100763</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-74.5109604</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1504,9 +1765,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>40.6296514</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-74.5619694</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1529,9 +1796,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>40.6055887</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-74.500253</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1554,9 +1827,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>40.6296224</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-74.54534409999999</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1579,9 +1858,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>40.6284291</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-74.5600134</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1604,9 +1889,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>40.6065099</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-74.55304269999999</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1629,9 +1920,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>40.6163227</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-74.5129804</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1654,9 +1951,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>40.6465248</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-74.5171989</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1679,9 +1982,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>40.6114004</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-74.5168429</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1704,9 +2013,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>40.6279373</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-74.5664895</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1729,9 +2044,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>40.6008939</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-74.5290943</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,9 +2075,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>40.6185125</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-74.55776209999999</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1779,9 +2106,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>40.6268864</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-74.5448864</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1804,9 +2137,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>40.6273054</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-74.55881459999999</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1829,9 +2168,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>40.6319224</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-74.5641227</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1854,9 +2199,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>40.6026497</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-74.5137246</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1879,9 +2230,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>40.6218635</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-74.49732539999999</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1904,9 +2261,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>40.6344514</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-74.5098227</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1929,9 +2292,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>40.6107093</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-74.50994799999999</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1954,9 +2323,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>40.6431382</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-74.5489506</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1979,9 +2354,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>40.5920501</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-74.52080649999999</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2004,9 +2385,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>40.6033948</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-74.5130535</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2029,9 +2416,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>40.6440804</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-74.48113669999999</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2054,9 +2447,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>40.6258527</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-74.55831259999999</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2079,9 +2478,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>40.616766</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-74.53943889999999</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2104,9 +2509,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>40.6057372</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-74.5272404</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2129,9 +2540,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>40.620439</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-74.5028626</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2154,9 +2571,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>40.6450551</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-74.4578758</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2179,9 +2602,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>40.6292609</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-74.5691982</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2204,9 +2633,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>40.6198033</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-74.5136151</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2229,9 +2664,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>40.5998315</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-74.5236728</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2254,9 +2695,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>40.6586114</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-74.47337449999999</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2279,9 +2726,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>40.6390136</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-74.55339979999999</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2304,9 +2757,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>40.5966375</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-74.52566259999999</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2329,9 +2788,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>40.6292613</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-74.56311669999999</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2354,9 +2819,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>40.6230747</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-74.48280849999999</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2379,9 +2850,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>40.6231069</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-74.5312687</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2404,9 +2881,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>39.8740832</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-74.908303</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2429,9 +2912,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>40.6319726</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-74.54052299999999</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2454,9 +2943,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>40.6464682</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-74.4707126</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2479,9 +2974,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>40.6461917</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-74.51395529999999</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2504,9 +3005,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>40.6074498</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-74.5503435</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2529,9 +3036,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>40.6129907</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-74.5209205</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2554,9 +3067,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F85" t="n">
+        <v>40.6445448</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-74.5555847</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2579,9 +3098,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F86" t="n">
+        <v>40.62249449999999</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-74.49440890000001</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2604,9 +3129,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F87" t="n">
+        <v>40.6389466</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-74.55807949999999</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2629,9 +3160,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F88" t="n">
+        <v>40.6464049</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-74.51456109999999</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2654,9 +3191,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>40.6327227</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-74.5102102</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2679,9 +3222,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F90" t="n">
+        <v>40.6247919</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-74.5612991</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2704,9 +3253,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>40.6317667</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-74.4764491</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2729,9 +3284,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>40.6449994</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-74.4711092</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2754,9 +3315,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>40.6341746</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-74.505529</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2779,9 +3346,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F94" t="n">
+        <v>40.6191118</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-74.54995509999999</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2804,9 +3377,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>40.653623</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-74.4566835</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2829,9 +3408,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>40.61360699999999</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-74.5612974</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2854,9 +3439,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>40.6241587</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-74.5658225</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2879,9 +3470,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>40.6442818</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-74.4864795</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2904,9 +3501,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>40.6148688</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-74.5034795</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2929,9 +3532,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F100" t="n">
+        <v>40.6295248</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-74.51875889999999</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2954,9 +3563,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F101" t="n">
+        <v>40.6229015</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-74.4922579</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2979,9 +3594,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F102" t="n">
+        <v>40.650388</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-74.4910142</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -3004,9 +3625,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F103" t="n">
+        <v>40.6232709</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-74.49236449999999</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -3029,9 +3656,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F104" t="n">
+        <v>40.6229631</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-74.48867129999999</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -3054,9 +3687,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F105" t="n">
+        <v>40.6218394</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-74.5092356</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -3079,9 +3718,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>40.6410325</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-74.4622164</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -3104,9 +3749,15 @@
           <t>Sheth</t>
         </is>
       </c>
+      <c r="F107" t="n">
+        <v>40.635264</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-74.57198199999999</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -3129,9 +3780,15 @@
           <t>Sheth</t>
         </is>
       </c>
+      <c r="F108" t="n">
+        <v>40.62479200000001</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-74.55108629999999</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -3154,9 +3811,15 @@
           <t>Solanki</t>
         </is>
       </c>
+      <c r="F109" t="n">
+        <v>40.6600587</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-74.4691254</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -3179,9 +3842,15 @@
           <t>Kadakia</t>
         </is>
       </c>
+      <c r="F110" t="n">
+        <v>40.64121249999999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-74.51272999999999</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -3204,9 +3873,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>40.63748560000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-74.52534050000001</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -3229,9 +3904,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F112" t="n">
+        <v>40.595066</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-74.529076</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -3254,9 +3935,15 @@
           <t>Dalal</t>
         </is>
       </c>
+      <c r="F113" t="n">
+        <v>40.6433513</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-74.54100319999999</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -3279,9 +3966,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F114" t="n">
+        <v>40.6232137</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-74.4903176</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -3304,9 +3997,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F115" t="n">
+        <v>40.5948169</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-74.5217777</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -3329,9 +4028,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F116" t="n">
+        <v>40.6402524</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-74.5391108</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -3354,9 +4059,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F117" t="n">
+        <v>40.5938927</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-74.5261551</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -3379,9 +4090,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F118" t="n">
+        <v>40.6081346</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-74.4969258</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -3404,9 +4121,15 @@
           <t>Purohit</t>
         </is>
       </c>
+      <c r="F119" t="n">
+        <v>40.5991746</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-74.5292774</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -3429,9 +4152,15 @@
           <t>Purohit</t>
         </is>
       </c>
+      <c r="F120" t="n">
+        <v>40.6123385</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-74.5611591</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -3454,9 +4183,15 @@
           <t>Raval</t>
         </is>
       </c>
+      <c r="F121" t="n">
+        <v>40.6134424</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-74.54575609999999</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -3479,9 +4214,15 @@
           <t>Raval</t>
         </is>
       </c>
+      <c r="F122" t="n">
+        <v>40.6396015</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-74.5090878</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -3504,9 +4245,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F123" t="n">
+        <v>40.616296</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-74.50106869999999</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -3529,9 +4276,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F124" t="n">
+        <v>40.6283274</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-74.4909002</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -3554,9 +4307,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F125" t="n">
+        <v>40.6465233</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-74.5154067</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -3579,9 +4338,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F126" t="n">
+        <v>40.6281362</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-74.5646678</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -3604,9 +4369,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F127" t="n">
+        <v>40.5906436</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-74.52225659999999</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -3629,9 +4400,15 @@
           <t>Rana</t>
         </is>
       </c>
+      <c r="F128" t="n">
+        <v>40.6341746</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-74.505529</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -3654,9 +4431,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F129" t="n">
+        <v>40.65239589999999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-74.4694303</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -3679,9 +4462,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F130" t="n">
+        <v>40.619734</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-74.5602576</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -3704,9 +4493,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F131" t="n">
+        <v>40.6460287</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-74.514411</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -3729,9 +4524,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F132" t="n">
+        <v>40.6223027</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-74.4843262</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -3753,6 +4554,12 @@
         <is>
           <t>Parikh</t>
         </is>
+      </c>
+      <c r="F133" t="n">
+        <v>40.6223027</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-74.4843262</v>
       </c>
     </row>
   </sheetData>
